--- a/صيدليات دكتور مصطفي طلعت_2026-01-10_18-16.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-10_18-16.xlsx
@@ -77,6 +77,9 @@
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -114,9 +117,6 @@
   </si>
   <si>
     <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>1:2</t>
   </si>
   <si>
     <t>CONCOR 10MG 30 F.C. TABLETS</t>
@@ -1085,7 +1085,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1103,7 +1103,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1129,7 +1129,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1137,7 +1137,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1155,7 +1155,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1163,7 +1163,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1207,7 +1207,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1233,7 +1233,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1259,7 +1259,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1267,7 +1267,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1285,7 +1285,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1311,7 +1311,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1337,7 +1337,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1345,7 +1345,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1449,7 +1449,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1605,7 +1605,7 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1631,7 +1631,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1657,7 +1657,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1995,7 +1995,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -2073,7 +2073,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -2125,7 +2125,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -2567,7 +2567,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
@@ -2697,7 +2697,7 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
@@ -2879,7 +2879,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
